--- a/个人资料/工作簿1.xlsx
+++ b/个人资料/工作簿1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>登录账号</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>绑定支付宝账号：</t>
     </r>
     <r>
@@ -185,18 +191,42 @@
   <si>
     <t>612422197803067856</t>
   </si>
+  <si>
+    <t>公积金</t>
+  </si>
+  <si>
+    <t>账户：170267921205</t>
+  </si>
+  <si>
+    <t>个人信用账户</t>
+  </si>
+  <si>
+    <t>登录名：jisoro</t>
+  </si>
+  <si>
+    <t>密码：zhxiho231117</t>
+  </si>
+  <si>
+    <t>邮箱：2445838271@qq.com</t>
+  </si>
+  <si>
+    <t>手机号：13127527199</t>
+  </si>
+  <si>
+    <t>验证码：qt6nkr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,46 +266,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,6 +409,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -401,7 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -443,6 +458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,12 +476,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,31 +536,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,103 +608,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,13 +679,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -779,10 +790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,137 +802,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,52 +957,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1000,7 +1005,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,8 +1327,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1361,7 +1369,7 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:10">
       <c r="A2" s="9">
@@ -1380,14 +1388,14 @@
       <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -1406,17 +1414,17 @@
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:10">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1428,23 +1436,23 @@
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>231117</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:10">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1454,25 +1462,25 @@
       <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>231117</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:10">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1482,25 +1490,25 @@
       <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>231117</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:10">
-      <c r="A7" s="14"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1508,79 +1516,79 @@
         <v>26</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="24"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:10">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="24"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:10">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>2445838271</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:10">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>13127527199</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>231117</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>13127527199</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1590,30 +1598,30 @@
       <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="24"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:10">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="24"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
       <c r="A13" s="9" t="s">
@@ -1634,15 +1642,15 @@
       <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="50" customHeight="1" spans="1:10">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1656,17 +1664,17 @@
         <v>44</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="24"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:10">
-      <c r="A15" s="20"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="11"/>
@@ -1674,17 +1682,17 @@
         <v>13757492768</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="24"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
-      <c r="A16" s="20"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="11"/>
@@ -1692,17 +1700,17 @@
         <v>13127527199</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="24"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:10">
-      <c r="A17" s="20"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="11"/>
@@ -1710,17 +1718,17 @@
         <v>15106229206</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="24"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:10">
-      <c r="A18" s="20"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="11"/>
@@ -1728,53 +1736,84 @@
         <v>18913790206</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="24"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:10">
-      <c r="A19" s="20"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="24"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:10">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="25"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:10">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" ht="50" customHeight="1"/>
-    <row r="23" ht="50" customHeight="1"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="1:4">
+      <c r="A22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="1:9">
+      <c r="A23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="24" ht="50" customHeight="1"/>
     <row r="25" ht="50" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C14:D14"/>
@@ -1793,6 +1832,11 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A14:A21"/>

--- a/个人资料/工作簿1.xlsx
+++ b/个人资料/工作簿1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>登录账号</t>
   </si>
@@ -141,6 +141,15 @@
     <t>建行：6217004220028317984</t>
   </si>
   <si>
+    <t>微信公众号</t>
+  </si>
+  <si>
+    <t>AppId（wxd688978c16418488）</t>
+  </si>
+  <si>
+    <t>AppSecret(应用密钥)efeea0d11831e10d8e23a453c1b0d7cd</t>
+  </si>
+  <si>
     <t>腾讯云</t>
   </si>
   <si>
@@ -221,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -280,7 +289,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -981,31 +990,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1325,10 +1334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1369,7 +1378,7 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:10">
       <c r="A2" s="9">
@@ -1395,7 +1404,7 @@
       <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -1421,7 +1430,7 @@
       <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -1449,7 +1458,7 @@
       <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:10">
       <c r="A5" s="12"/>
@@ -1477,7 +1486,7 @@
       <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:10">
       <c r="A6" s="12"/>
@@ -1505,7 +1514,7 @@
       <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:10">
       <c r="A7" s="12"/>
@@ -1521,7 +1530,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:10">
       <c r="A8" s="12"/>
@@ -1535,7 +1544,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:10">
       <c r="A9" s="9" t="s">
@@ -1559,7 +1568,7 @@
       <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:10">
       <c r="A10" s="12"/>
@@ -1585,239 +1594,261 @@
         <v>35</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
       <c r="A11" s="12"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="11">
-        <v>13127527199</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="22"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11">
+        <v>13127527199</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A13" s="12"/>
       <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="11">
-        <v>13127527199</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="50" customHeight="1" spans="1:10">
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="1:10">
       <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11">
+        <v>13127527199</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:10">
+      <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" ht="50" customHeight="1" spans="1:10">
-      <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>13757492768</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="22"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>13127527199</v>
+        <v>13757492768</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:10">
       <c r="A17" s="12"/>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>15106229206</v>
+        <v>13127527199</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:10">
       <c r="A18" s="12"/>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>18913790206</v>
+        <v>15106229206</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:10">
       <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <v>18913790206</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:10">
       <c r="A20" s="12"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="23"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:10">
       <c r="A21" s="12"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" ht="50" customHeight="1" spans="1:4">
-      <c r="A22" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="1:10">
+      <c r="A22" s="12"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" ht="50" customHeight="1" spans="1:9">
-      <c r="A23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="20" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="1:4">
+      <c r="A23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" ht="50" customHeight="1" spans="1:9">
+      <c r="A24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="24" t="s">
+      <c r="D24" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" ht="50" customHeight="1"/>
+      <c r="E24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="25" ht="50" customHeight="1"/>
+    <row r="26" ht="50" customHeight="1"/>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C16:D16"/>
@@ -1832,14 +1863,16 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" display="2445838271"/>

--- a/个人资料/工作簿1.xlsx
+++ b/个人资料/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8970" tabRatio="154"/>
+    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="154"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>登录账号</t>
   </si>
@@ -207,6 +207,15 @@
     <t>账户：170267921205</t>
   </si>
   <si>
+    <t>登录名：zhxiho</t>
+  </si>
+  <si>
+    <t>密码：07621632</t>
+  </si>
+  <si>
+    <t>手机号：13564055979</t>
+  </si>
+  <si>
     <t>个人信用账户</t>
   </si>
   <si>
@@ -223,6 +232,27 @@
   </si>
   <si>
     <t>验证码：qt6nkr</t>
+  </si>
+  <si>
+    <t>宜人贷</t>
+  </si>
+  <si>
+    <t>账户：13127527199</t>
+  </si>
+  <si>
+    <t>密码：zhxiho</t>
+  </si>
+  <si>
+    <t>腾讯企业邮箱</t>
+  </si>
+  <si>
+    <t>账户：xing.li@mybank.cc</t>
+  </si>
+  <si>
+    <t>密码：Jisoro231117</t>
+  </si>
+  <si>
+    <t>融360</t>
   </si>
 </sst>
 </file>
@@ -230,12 +260,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,10 +326,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,9 +372,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,9 +395,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,17 +424,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,59 +453,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,187 +490,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +717,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -714,56 +752,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +779,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,149 +822,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,15 +1013,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1023,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1334,10 +1360,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1378,7 +1404,7 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:10">
       <c r="A2" s="9">
@@ -1404,7 +1430,7 @@
       <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -1430,7 +1456,7 @@
       <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -1458,7 +1484,7 @@
       <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:10">
       <c r="A5" s="12"/>
@@ -1486,7 +1512,7 @@
       <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:10">
       <c r="A6" s="12"/>
@@ -1514,7 +1540,7 @@
       <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:10">
       <c r="A7" s="12"/>
@@ -1530,7 +1556,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="23"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:10">
       <c r="A8" s="12"/>
@@ -1544,7 +1570,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:10">
       <c r="A9" s="9" t="s">
@@ -1568,7 +1594,7 @@
       <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:10">
       <c r="A10" s="12"/>
@@ -1594,11 +1620,11 @@
         <v>35</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
       <c r="A11" s="12"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1607,16 +1633,16 @@
       <c r="D11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:10">
       <c r="A12" s="12"/>
@@ -1638,7 +1664,7 @@
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
       <c r="A13" s="12"/>
@@ -1652,7 +1678,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="23"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:10">
       <c r="A14" s="9" t="s">
@@ -1678,7 +1704,7 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:10">
       <c r="A15" s="9" t="s">
@@ -1698,14 +1724,14 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="11"/>
@@ -1716,14 +1742,14 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:10">
       <c r="A17" s="12"/>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="11"/>
@@ -1734,14 +1760,14 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:10">
       <c r="A18" s="12"/>
       <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="11"/>
@@ -1752,14 +1778,14 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:10">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="11"/>
@@ -1770,7 +1796,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:10">
       <c r="A20" s="12"/>
@@ -1782,69 +1808,124 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:10">
       <c r="A21" s="12"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:10">
       <c r="A22" s="12"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" ht="50" customHeight="1" spans="1:4">
-      <c r="A23" s="21" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="1:9">
+      <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:9">
-      <c r="A24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="22"/>
+      <c r="A24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="50" customHeight="1"/>
-    <row r="26" ht="50" customHeight="1"/>
+      <c r="I24" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" ht="50" customHeight="1" spans="1:6">
+      <c r="A25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" ht="50" customHeight="1" spans="1:6">
+      <c r="A26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" ht="56" customHeight="1" spans="1:6">
+      <c r="A27" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="37">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E11:F11"/>
@@ -1867,9 +1948,18 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A15:A22"/>

--- a/个人资料/工作簿1.xlsx
+++ b/个人资料/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="154"/>
+    <workbookView windowWidth="20385" windowHeight="8385" tabRatio="154"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,11 +261,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,10 +319,115 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,25 +440,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,104 +452,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +710,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -728,6 +746,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,41 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -799,21 +806,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -822,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,137 +826,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,12 +1021,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1360,10 +1346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1404,7 +1390,7 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:10">
       <c r="A2" s="9">
@@ -1430,7 +1416,7 @@
       <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -1456,7 +1442,7 @@
       <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -1484,7 +1470,7 @@
       <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:10">
       <c r="A5" s="12"/>
@@ -1512,7 +1498,7 @@
       <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:10">
       <c r="A6" s="12"/>
@@ -1540,7 +1526,7 @@
       <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:10">
       <c r="A7" s="12"/>
@@ -1556,7 +1542,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="24"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:10">
       <c r="A8" s="12"/>
@@ -1570,7 +1556,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:10">
       <c r="A9" s="9" t="s">
@@ -1594,7 +1580,7 @@
       <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:10">
       <c r="A10" s="12"/>
@@ -1620,7 +1606,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
       <c r="A11" s="12"/>
@@ -1642,7 +1628,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:10">
       <c r="A12" s="12"/>
@@ -1664,7 +1650,7 @@
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
       <c r="A13" s="12"/>
@@ -1678,7 +1664,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:10">
       <c r="A14" s="9" t="s">
@@ -1704,7 +1690,7 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:10">
       <c r="A15" s="9" t="s">
@@ -1724,14 +1710,14 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="11"/>
@@ -1742,14 +1728,14 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:10">
       <c r="A17" s="12"/>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="11"/>
@@ -1760,14 +1746,14 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:10">
       <c r="A18" s="12"/>
       <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="11"/>
@@ -1778,14 +1764,14 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:10">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="11"/>
@@ -1796,7 +1782,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:10">
       <c r="A20" s="12"/>
@@ -1808,7 +1794,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:10">
       <c r="A21" s="12"/>
@@ -1820,7 +1806,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:10">
       <c r="A22" s="12"/>
@@ -1832,7 +1818,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:9">
       <c r="A23" s="18" t="s">
@@ -1874,7 +1860,7 @@
         <v>65</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1883,10 +1869,10 @@
         <v>67</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -1909,14 +1895,14 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" ht="56" customHeight="1" spans="1:6">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -1924,6 +1910,14 @@
       </c>
       <c r="F27" s="11"/>
     </row>
+    <row r="28" ht="42" customHeight="1"/>
+    <row r="29" ht="42" customHeight="1"/>
+    <row r="30" ht="42" customHeight="1"/>
+    <row r="31" ht="42" customHeight="1"/>
+    <row r="32" ht="42" customHeight="1"/>
+    <row r="33" ht="42" customHeight="1"/>
+    <row r="34" ht="42" customHeight="1"/>
+    <row r="35" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="C7:D7"/>

--- a/个人资料/工作簿1.xlsx
+++ b/个人资料/工作簿1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>登录账号</t>
   </si>
@@ -76,16 +76,13 @@
     <t>支付宝</t>
   </si>
   <si>
-    <t>Jisoro..zhifubao</t>
+    <t>Jisoro..aliyun</t>
   </si>
   <si>
     <t>建行：6217004220028317984招行：6225768755638408</t>
   </si>
   <si>
     <t>阿里云</t>
-  </si>
-  <si>
-    <t>Jisoro..ali</t>
   </si>
   <si>
     <r>
@@ -117,6 +114,18 @@
     <t>服务器</t>
   </si>
   <si>
+    <t>登录名root  Jisoro..aliyun</t>
+  </si>
+  <si>
+    <t>服务器实例名：Aliyun-Li    内网IP：172.19.0.1     外网IP:139.196.91.71</t>
+  </si>
+  <si>
+    <t>ICP代备案管理系统： 备案ID为：2871454   备案服务号：266377b8-dd9a-4f1f-897e-2ba1deea2004</t>
+  </si>
+  <si>
+    <t>Jisoro..2317</t>
+  </si>
+  <si>
     <t>腾讯</t>
   </si>
   <si>
@@ -261,11 +270,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,14 +314,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,6 +372,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -334,8 +425,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,112 +476,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,19 +506,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,163 +662,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +733,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -726,10 +759,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -746,15 +786,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,18 +822,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,137 +850,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,10 +1023,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1346,10 +1391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1390,7 +1435,7 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:10">
       <c r="A2" s="9">
@@ -1416,7 +1461,7 @@
       <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -1442,7 +1487,7 @@
       <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -1470,7 +1515,7 @@
       <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:10">
       <c r="A5" s="12"/>
@@ -1498,18 +1543,18 @@
       <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:10">
       <c r="A6" s="12"/>
       <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="11">
         <v>231117</v>
@@ -1520,21 +1565,21 @@
       <c r="G6" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>24</v>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:10">
       <c r="A7" s="12"/>
       <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1542,394 +1587,437 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:10">
       <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:10">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" ht="50" customHeight="1" spans="1:10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15">
-        <v>2445838271</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
-        <v>13127527199</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" ht="50" customHeight="1" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11">
-        <v>13127527199</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="11">
-        <v>231117</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="11">
-        <v>13127527199</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="22"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="18"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2445838271</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" ht="50" customHeight="1" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="11">
         <v>13127527199</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="11">
+        <v>13127527199</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11">
+        <v>231117</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="11">
+        <v>13127527199</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:10">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="A14" s="12"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="1:10">
+      <c r="A15" s="12"/>
+      <c r="B15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="11">
+      <c r="D15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11">
         <v>13127527199</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:10">
-      <c r="A15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="22"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>49</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="11">
-        <v>13757492768</v>
-      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:10">
-      <c r="A17" s="12"/>
+      <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11">
         <v>13127527199</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" ht="50" customHeight="1" spans="1:10">
-      <c r="A18" s="12"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="50" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
-        <v>15106229206</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:10">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>18913790206</v>
+        <v>13757492768</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="22"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:10">
       <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11">
+        <v>13127527199</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="22"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:10">
       <c r="A21" s="12"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11">
+        <v>15106229206</v>
+      </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:10">
       <c r="A22" s="12"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11">
+        <v>18913790206</v>
+      </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" ht="50" customHeight="1" spans="1:9">
-      <c r="A23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="1:10">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" ht="50" customHeight="1" spans="1:10">
+      <c r="A24" s="12"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" ht="50" customHeight="1" spans="1:10">
+      <c r="A25" s="12"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" ht="50" customHeight="1" spans="1:9">
+      <c r="A26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="11" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1" spans="1:9">
-      <c r="A24" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" ht="50" customHeight="1" spans="1:6">
-      <c r="A25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" ht="50" customHeight="1" spans="1:6">
-      <c r="A26" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" ht="50" customHeight="1" spans="1:9">
+      <c r="A27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" ht="50" customHeight="1" spans="1:6">
+      <c r="A28" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" ht="56" customHeight="1" spans="1:6">
-      <c r="A27" s="20" t="s">
+      <c r="E28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" ht="50" customHeight="1" spans="1:6">
+      <c r="A29" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" ht="42" customHeight="1"/>
-    <row r="29" ht="42" customHeight="1"/>
-    <row r="30" ht="42" customHeight="1"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" ht="56" customHeight="1" spans="1:6">
+      <c r="A30" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
     <row r="31" ht="42" customHeight="1"/>
     <row r="32" ht="42" customHeight="1"/>
     <row r="33" ht="42" customHeight="1"/>
     <row r="34" ht="42" customHeight="1"/>
     <row r="35" ht="42" customHeight="1"/>
+    <row r="36" ht="42" customHeight="1"/>
+    <row r="37" ht="42" customHeight="1"/>
+    <row r="38" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C19:D19"/>
@@ -1940,27 +2028,35 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="2445838271"/>
-    <hyperlink ref="F10" r:id="rId2" display="15102925356@163.com"/>
+    <hyperlink ref="C12" r:id="rId1" display="2445838271"/>
+    <hyperlink ref="F13" r:id="rId2" display="15102925356@163.com"/>
+    <hyperlink ref="C6" r:id="rId1" display="2445838271@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
